--- a/uploads/foods.xlsx
+++ b/uploads/foods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Exercise-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E22537-BC56-4425-9F8A-9C2EF36E919B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3629C04-788E-41EB-BC7F-F223E7FC719D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,30 @@
   </si>
   <si>
     <t>浏阳蒸菜（糖醋排骨+番茄炒蛋+2小炒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水动乐饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葱爆牛肉盖浇饭（加饭）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王小卤鸡爪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1136,6 +1160,66 @@
         <v>540</v>
       </c>
     </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="1">
+        <v>70</v>
+      </c>
+      <c r="D34" s="1">
+        <v>32</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8</v>
+      </c>
+      <c r="F34" s="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
